--- a/downloaded_files/MEPS420_Lecture-35604.xlsx
+++ b/downloaded_files/MEPS420_Lecture-35604.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>ِAhmed Ibrahim Mustafa Ibrahim Abdelkhalek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد اسامه حامد على دحروج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed osama hamed Ali Dahroug</x:t>
   </x:si>
   <x:si>
     <x:t>1210187</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -817,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4157838773</x:v>
+        <x:v>45923.7179160069</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4587482639</x:v>
+        <x:v>45906.4157838773</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.677180787</x:v>
+        <x:v>45909.4587482639</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6847966088</x:v>
+        <x:v>45906.677180787</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.4214077893</x:v>
+        <x:v>45909.6847966088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.416181331</x:v>
+        <x:v>45913.4214077893</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6748893171</x:v>
+        <x:v>45909.416181331</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146811343</x:v>
+        <x:v>45906.6748893171</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647992245</x:v>
+        <x:v>45906.4146811343</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.6647992245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4308738426</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4167829861</x:v>
+        <x:v>45906.4308738426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45906.4167829861</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6656476852</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152837153</x:v>
+        <x:v>45906.6656476852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45906.4152837153</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.5186452546</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143109144</x:v>
+        <x:v>45906.5186452546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4167361458</x:v>
+        <x:v>45906.4143109144</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6758269676</x:v>
+        <x:v>45906.4167361458</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45906.6758269676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.6656807523</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS420_Lecture-35604.xlsx
+++ b/downloaded_files/MEPS420_Lecture-35604.xlsx
@@ -1553,11 +1553,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MEPS420_Lecture-35604.xlsx
+++ b/downloaded_files/MEPS420_Lecture-35604.xlsx
@@ -1553,11 +1553,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of Energy in Buildings (MEPS420) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
